--- a/data_used/Copy of Chla NPP Raw TAN1810 V5.xlsx
+++ b/data_used/Copy of Chla NPP Raw TAN1810 V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gutierreza/OneDrive - NIWA/NIWA/SCIENCE/Cruises/TAN1810/RESULTS/14C/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{D23253E7-1A12-1144-9A87-0739307C9AAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D1E97DC6-8550-8E44-92BC-859EDCDFB05B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3ADAE-8C02-0D42-9167-52F380A11C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="1700" windowWidth="29040" windowHeight="15840" xr2:uid="{B58FDA5F-C642-47F4-85EC-4C4CDDE34750}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{B58FDA5F-C642-47F4-85EC-4C4CDDE34750}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled TAN1810 NPP data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2034,10 +2037,10 @@
   <dimension ref="A1:MU401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG15" sqref="AG15"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3146,7 +3149,7 @@
       </c>
       <c r="AJ11" s="116">
         <f>AVERAGE(AI11:AI13)-AVERAGE(AI14)</f>
-        <v>6.0515231989401039</v>
+        <v>-1.471811143349818</v>
       </c>
       <c r="AK11" s="116">
         <f>STDEV(AI11:AI13)</f>
@@ -3154,7 +3157,7 @@
       </c>
       <c r="AL11" s="187">
         <f>AVERAGE(AI11:AI13)-AVERAGE(AI14)</f>
-        <v>6.0515231989401039</v>
+        <v>-1.471811143349818</v>
       </c>
       <c r="AM11" s="188">
         <f>STDEV(AI11:AI13)</f>
@@ -3256,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="AH12" s="115">
-        <f t="shared" si="2"/>
+        <f>AA12*1.3</f>
         <v>21087.3</v>
       </c>
       <c r="AI12" s="104">
@@ -3460,8 +3463,8 @@
         <v>21087.3</v>
       </c>
       <c r="AI14" s="104">
-        <f t="shared" si="3"/>
-        <v>0.44964878258378493</v>
+        <f>((AB7)*(W7*1.05)/(AH7*10*325)*1000)/F7</f>
+        <v>7.9729831248737071</v>
       </c>
     </row>
     <row r="15" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -48888,15 +48891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FE645E44DF4C347A076E5154A1E1A44" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5540a43bda451fd1f603e82bdd2c2e22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="0e9b77c3-686e-41f8-8658-848585ae3dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1032ffb6c5698aeb6b8514bfe6c240d4" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -49071,6 +49065,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -49081,14 +49084,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40DEE15-0DFC-47C3-99E1-30D877720169}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233D6EEC-7CEA-4537-A320-1E1E1AA182A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49103,6 +49098,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40DEE15-0DFC-47C3-99E1-30D877720169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
